--- a/StockMasters_Teszteles_CsakiBalazs_ZsigoRobert.xlsx
+++ b/StockMasters_Teszteles_CsakiBalazs_ZsigoRobert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZsigoRobert\Documents\GitHub\13_S2_3_vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C60FCAC-3C1B-4892-8500-80D1D51F90E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5EF591-041A-4F75-9FAE-F4F47609F2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Belepes" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Beallitasok" sheetId="6" r:id="rId6"/>
     <sheet name="Vetel" sheetId="7" r:id="rId7"/>
     <sheet name="Eladas" sheetId="8" r:id="rId8"/>
+    <sheet name="BelepesHiba" sheetId="9" r:id="rId9"/>
+    <sheet name="RegisztracioHiba" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="89">
   <si>
     <t>Név (Name)</t>
   </si>
@@ -310,6 +312,36 @@
   </si>
   <si>
     <t>szétcsúszó ár nem egyértelmű jelzések</t>
+  </si>
+  <si>
+    <t>Hibás Belépés Teszt</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Hibás Belépés adatok</t>
+  </si>
+  <si>
+    <t>Weboldal megnyitása és futtatása, majd bejelentkezés hibás adatokkal</t>
+  </si>
+  <si>
+    <t>Sikertelen belépés hiba jelzéssel</t>
+  </si>
+  <si>
+    <t>Regisztráció Hibásan</t>
+  </si>
+  <si>
+    <t>A teszt célja az új fiók létrehozása és regisztrálása ne történjen meg és hibát írjon</t>
+  </si>
+  <si>
+    <t>Weboldal megnyitása, Nincs még fiókom gomb kiválasztása, adatok beírása,jelszó beírása hibásan regisztrálás</t>
+  </si>
+  <si>
+    <t>Választott felhasználónév, jelszó, email cím, jelszó újra hibásan</t>
+  </si>
+  <si>
+    <t>Sikertelen regisztráció, jelszó hiba</t>
   </si>
 </sst>
 </file>
@@ -646,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1744,11 +1776,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C724D6B-845E-42A7-880C-112CCDCEFDA8}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9410,4 +9559,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FC70BC-0856-4BD0-9C65-A01813F1CD02}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{D7529B8A-8006-4FD6-8F6B-E9C84958D261}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>